--- a/CheckList6v.xlsx
+++ b/CheckList6v.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DatosNuevos\__1Semestres\___sEneJun2023\_Materias\CasoEstudioEneJun2023\Redes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e89cb27f31176e5/Documentos/5.Redes/Caso de estudio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688D7B12-CD00-4360-9E7D-75E61BD2F318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{688D7B12-CD00-4360-9E7D-75E61BD2F318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C79F3260-97B8-48ED-ADB7-37A172B50582}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="90" windowWidth="24240" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Intructions" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,17 @@
     <sheet name="3 Lessons Learned" sheetId="4" r:id="rId4"/>
     <sheet name="4 TeamWork" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mgo1lL5G/eqPuDtBOqeyjwnKq+Vcg=="/>
     </ext>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
   <si>
     <t>#Tab</t>
   </si>
@@ -328,6 +337,57 @@
   </si>
   <si>
     <t>Achievements</t>
+  </si>
+  <si>
+    <t>https://github.com/Cinthya97Almaguer/Caso_Estudio</t>
+  </si>
+  <si>
+    <t>160.0.0.0/16</t>
+  </si>
+  <si>
+    <t>192.168.0.0/18</t>
+  </si>
+  <si>
+    <t>Briones Almaguer Cinthya Cristina</t>
+  </si>
+  <si>
+    <t>Pacheco Vazquez Joana</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Subneteo</t>
+  </si>
+  <si>
+    <t>Conexión Swtich</t>
+  </si>
+  <si>
+    <t>Problemas Con Rutas Estaticas</t>
+  </si>
+  <si>
+    <t>Verificar la corecta conexión y depues de prendio y apago el switch.</t>
+  </si>
+  <si>
+    <t>Joana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se verifico el subneteo y se identificaron diferencia. </t>
+  </si>
+  <si>
+    <t>Cinthya</t>
+  </si>
+  <si>
+    <t>Una ruta no conectaba y se verifico el salto, con ayuda del simulador se encontro el problema y se corrigio las rutas.</t>
+  </si>
+  <si>
+    <t>Conexión Multi-usuario</t>
+  </si>
+  <si>
+    <t>Al momento de conectar las computadoras no se lograba establecer conección. Se volvio a verificar la configuración para conectarse.</t>
+  </si>
+  <si>
+    <t>Cinthya - Joana</t>
   </si>
 </sst>
 </file>
@@ -658,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -833,6 +893,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1507,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -4571,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4820,18 +4894,24 @@
       <c r="B9" s="18">
         <v>1</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="I9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="J9" s="72">
+        <v>45069</v>
+      </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -4854,14 +4934,18 @@
       <c r="B10" s="18">
         <v>2</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="24"/>
       <c r="K10" s="11"/>
@@ -5013,7 +5097,9 @@
         <v>3</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="36"/>
+      <c r="F15" s="36">
+        <v>3</v>
+      </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
       <c r="I15" s="11"/>
@@ -5045,7 +5131,9 @@
         <v>7</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="36"/>
+      <c r="F16" s="36">
+        <v>7</v>
+      </c>
       <c r="G16" s="37"/>
       <c r="H16" s="38"/>
       <c r="I16" s="11"/>
@@ -5077,7 +5165,9 @@
         <v>10</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="12">
+        <v>10</v>
+      </c>
       <c r="G17" s="37"/>
       <c r="H17" s="12"/>
       <c r="I17" s="14"/>
@@ -5195,7 +5285,9 @@
         <v>2</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="12">
+        <v>2</v>
+      </c>
       <c r="G21" s="37"/>
       <c r="H21" s="12"/>
       <c r="I21" s="11"/>
@@ -5227,7 +5319,9 @@
         <v>2</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="12">
+        <v>2</v>
+      </c>
       <c r="G22" s="37"/>
       <c r="H22" s="12"/>
       <c r="I22" s="11"/>
@@ -5259,7 +5353,9 @@
         <v>2</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="11">
+        <v>2</v>
+      </c>
       <c r="G23" s="37"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -5405,7 +5501,9 @@
         <v>8</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="36"/>
+      <c r="F28" s="36">
+        <v>8</v>
+      </c>
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="11"/>
@@ -5435,7 +5533,9 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -5465,7 +5565,9 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -5495,7 +5597,9 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -5525,7 +5629,9 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="73" t="s">
+        <v>86</v>
+      </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -5555,7 +5661,9 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="73" t="s">
+        <v>86</v>
+      </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -5585,7 +5693,9 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="73" t="s">
+        <v>86</v>
+      </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -5617,7 +5727,9 @@
         <v>10</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="36"/>
+      <c r="F35" s="36">
+        <v>10</v>
+      </c>
       <c r="H35" s="38"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
@@ -6745,7 +6857,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="57">
         <f>SUM(F15:F72)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H74" s="57">
         <f>SUM(H15:H72)</f>
@@ -31787,15 +31899,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="63.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="26" width="11.42578125" customWidth="1"/>
   </cols>
@@ -31824,37 +31938,69 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="C7" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="61">
+        <v>1</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="C8" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="61">
+        <v>2</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="76" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="74">
         <v>3</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="75">
+        <v>3</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="C10" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="61">
+        <v>4</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32846,7 +32992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B10:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33939,8 +34087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33991,6 +34139,13 @@
       <c r="B8" s="64" t="s">
         <v>77</v>
       </c>
+      <c r="C8" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
       <c r="I8" t="s">
         <v>79</v>
       </c>
@@ -34996,6 +35151,9 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C8:G8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
